--- a/Sample/속성업로드_샘플.xlsx
+++ b/Sample/속성업로드_샘플.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\dev\startour\convention\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B35A5F-1690-4357-9966-E41365A7C18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D716B6BA-5A7C-40DD-AC18-331EFDC9665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF7BFAF7-7A20-4F6C-9DD2-1AC299AE6969}"/>
+    <workbookView xWindow="38292" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{FF7BFAF7-7A20-4F6C-9DD2-1AC299AE6969}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,157 +28,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>번호</t>
   </si>
   <si>
-    <t>이름</t>
-  </si>
-  <si>
     <t>STAFF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정유진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄범식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김도현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>노정은</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주민번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>연락처</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2734-8926</t>
-  </si>
-  <si>
-    <t>010-4187-1867</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-6675-4147</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-9019-3989</t>
-  </si>
-  <si>
-    <t>870119-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>860526-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>020823-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>811202-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>부서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>선발대</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>105XL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>100L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>95S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>90XS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>티셔츠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>룸메이트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>무엇이든 들어감</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>같은 데이터면</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹화 되어있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>나중에 통계로 나옴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,13 +89,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -283,275 +175,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{3F225B9E-B9C0-4CB5-BAF2-3CC979C286F7}"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -979,250 +625,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D978733-F40D-43C2-BC78-5D1AACE7A082}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J3" sqref="J3"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>35</v>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>36</v>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
-  <autoFilter ref="A1:E5" xr:uid="{4D978733-F40D-43C2-BC78-5D1AACE7A082}"/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="cellIs" dxfId="28" priority="121" operator="equal">
+  <autoFilter ref="A1:B5" xr:uid="{4D978733-F40D-43C2-BC78-5D1AACE7A082}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="cellIs" dxfId="4" priority="121" operator="equal">
       <formula>"값 없음"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E1048576 A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="27" priority="224"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="26" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="179"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="24" priority="172"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="173"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="22" priority="170"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="171"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:E1048576 D1:H1">
-    <cfRule type="cellIs" dxfId="20" priority="55" operator="equal">
+  <conditionalFormatting sqref="C1:D1">
+    <cfRule type="cellIs" dxfId="3" priority="55" operator="equal">
       <formula>"불참"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="19" priority="228"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="229"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="17" priority="230"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="231"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F2">
-    <cfRule type="duplicateValues" dxfId="15" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F5">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+  <conditionalFormatting sqref="C1:D1">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"값 없음"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="12" priority="22"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="233"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"값 없음"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"값 없음"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:H1">
-    <cfRule type="duplicateValues" dxfId="0" priority="232"/>
+  <conditionalFormatting sqref="C1:D1">
+    <cfRule type="duplicateValues" dxfId="0" priority="235"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
